--- a/Docs/Progress Report - Group A.xlsx
+++ b/Docs/Progress Report - Group A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Loyalist College\STEP\Project\Telecom-Churn-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Loyalist College\STEP\Project\Telecom-Churn-Prediction\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C6051-07B2-4556-ADB8-84BB1FC1023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7D7A7B-4C3C-471D-A083-5D59B88EC746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Team Members</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Dataset analysis and visualization(StreamingTV,StreamingMovies)</t>
   </si>
   <si>
-    <t>Presentation Preparation &amp; Dataset understanding(PhoneService,MultipleLines,InternetService)</t>
-  </si>
-  <si>
     <t>Attribute analysis(OnlineSecurity,OnlineBackup)</t>
   </si>
   <si>
@@ -192,6 +189,39 @@
   </si>
   <si>
     <t>Week 5, Dataset analysis was continued while learning how to use different python libraries. Target variable imbalance was identified on the dataset.</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Pandas dummies encoding</t>
+  </si>
+  <si>
+    <t>SMOTE, One hot encoding</t>
+  </si>
+  <si>
+    <t>Missing values treatment, Dataset visualization</t>
+  </si>
+  <si>
+    <t>Categorical values encoding, Feature identification</t>
+  </si>
+  <si>
+    <t>One hot encoding, missing values treatment</t>
+  </si>
+  <si>
+    <t>Value Encoding, Undersampling (Merge and pull request)</t>
+  </si>
+  <si>
+    <t>EDA, Data Visualisation and Data Transformation</t>
+  </si>
+  <si>
+    <t>Treating missing values, Undersampling, Variate analysis</t>
+  </si>
+  <si>
+    <t>Week 6, EDA is finalized, Data is encoded, Missing values are treated. Data is ready for modelling.</t>
+  </si>
+  <si>
+    <t>Presentation Prep &amp; Dataset understanding(PhoneService,MultipleLines,InternetService)</t>
   </si>
 </sst>
 </file>
@@ -555,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,11 +597,12 @@
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
     <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" customWidth="1"/>
     <col min="6" max="6" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -579,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -587,12 +618,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -600,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -608,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -616,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -624,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -632,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -640,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -648,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -656,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -670,10 +701,13 @@
         <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -681,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -690,10 +724,13 @@
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -701,7 +738,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -710,10 +747,13 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -721,7 +761,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -730,10 +770,13 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -741,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -750,10 +793,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -761,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -770,10 +816,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -781,19 +830,22 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -801,19 +853,22 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -821,7 +876,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -830,10 +885,13 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -841,16 +899,19 @@
         <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
